--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="173">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -510,6 +510,48 @@
   </si>
   <si>
     <t xml:space="preserve">GLK28990</t>
+  </si>
+  <si>
+    <t>VHS09629</t>
+  </si>
+  <si>
+    <t>LIC10216</t>
+  </si>
+  <si>
+    <t>VGQ03997</t>
+  </si>
+  <si>
+    <t>VCK81171</t>
+  </si>
+  <si>
+    <t>EJC13099</t>
+  </si>
+  <si>
+    <t>SUC58629</t>
+  </si>
+  <si>
+    <t>AFS06795</t>
+  </si>
+  <si>
+    <t>JNU33593</t>
+  </si>
+  <si>
+    <t>OYD78239</t>
+  </si>
+  <si>
+    <t>AEN91076</t>
+  </si>
+  <si>
+    <t>SRS41554</t>
+  </si>
+  <si>
+    <t>YTD56528</t>
+  </si>
+  <si>
+    <t>QSX41205</t>
+  </si>
+  <si>
+    <t>RYG79178</t>
   </si>
 </sst>
 </file>
@@ -772,12 +814,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +983,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,10 +1127,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,11 +1465,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,11 +1827,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2206,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2233,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2383,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,13 +2533,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,13 +2706,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2879,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,10 +3029,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.53" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,12 +3542,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
